--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_20.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712691.9089763362</v>
+        <v>774472.9072599169</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216109</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484451</v>
+        <v>492028.934248445</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>27.16868866277477</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>9.498437594267671</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>42.40298014170588</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,10 +832,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,10 +871,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>60.29596688613749</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>116.5045959955564</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>90.61141342516291</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>34.21893616275574</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>158.7868437042811</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>205.6047704099222</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>146.1224224236111</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>137.5995661138269</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>161.3987745072892</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>154.0254420454376</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>244.6538412157985</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.7535668023728</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>209.9851594782036</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4556968337271</v>
+        <v>18.22772027659359</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1777,7 +1777,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7884964950059</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>82.62483121292163</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>18.227720276594</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>206.8981232563538</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.0254420454365</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2096,10 +2096,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>236.5068966114169</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.0567773522574</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2488,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>94.21878984361662</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>82.1420163755144</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>126.7541180064926</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>144.4937753855484</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>114.8528499950186</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3013,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>30.80549757377486</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3193,19 +3193,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>167.0321597791027</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225797</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3320,7 +3320,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561524</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3439,7 +3439,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>18.05677735225773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3509,7 +3509,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932887</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -3673,7 +3673,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950063</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225785</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3797,13 +3797,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655113</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864842</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,7 +3910,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950064</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>103.8284742946038</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3992,7 +3992,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112157</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>31.24391673888187</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4147,7 +4147,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170348</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.126648598368</v>
+        <v>980.7537922278683</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5449743356364</v>
+        <v>946.6517234516957</v>
       </c>
       <c r="D2" t="n">
-        <v>780.675593550485</v>
+        <v>510.7419386261402</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>76.96719378443538</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.52407392304672</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>49.52407392304672</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304672</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>463.1022238305971</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1070.804870139158</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1678.507516447718</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2235.297000382375</v>
       </c>
       <c r="U2" t="n">
-        <v>1687.589048672066</v>
+        <v>2235.297000382375</v>
       </c>
       <c r="V2" t="n">
-        <v>1687.589048672066</v>
+        <v>2235.297000382375</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.773998123504</v>
+        <v>1830.441545793408</v>
       </c>
       <c r="X2" t="n">
-        <v>1267.631534702814</v>
+        <v>1815.339486413123</v>
       </c>
       <c r="Y2" t="n">
-        <v>1263.385815042872</v>
+        <v>1407.053362712776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1298.29621102182</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>1191.839749858462</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1096.749461005016</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1002.629046331969</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>919.2452079481311</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>833.860118214315</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>792.1244660305274</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>818.1881391909849</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1189.74986447436</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1797.452510782921</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2338.191449414996</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2391.908789957719</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2261.730146288321</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2085.393599288289</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1886.276081350289</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1700.953327083483</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1546.085891322363</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1419.600112101583</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>464.9019468393491</v>
+        <v>740.0170737431358</v>
       </c>
       <c r="C4" t="n">
-        <v>464.9019468393491</v>
+        <v>740.0170737431358</v>
       </c>
       <c r="D4" t="n">
-        <v>464.9019468393491</v>
+        <v>574.1390809446585</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>531.3077878722283</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>354.6007338339846</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>189.0094588598122</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018673</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>1233.544589050298</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1233.544589050298</v>
+        <v>1519.99530944888</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1939.664558674662</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645004</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2296.122858807333</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2050.243412385788</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1771.810411638893</v>
       </c>
       <c r="V4" t="n">
-        <v>1209.739776605537</v>
+        <v>1484.854903509324</v>
       </c>
       <c r="W4" t="n">
-        <v>937.7133721918283</v>
+        <v>1212.828499095615</v>
       </c>
       <c r="X4" t="n">
-        <v>692.3216175252408</v>
+        <v>967.4367444290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>464.9019468393491</v>
+        <v>740.0170737431358</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>954.2291820326056</v>
+        <v>1476.683845818179</v>
       </c>
       <c r="C5" t="n">
-        <v>920.1271132564331</v>
+        <v>1038.541373001603</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>1006.671992216451</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>572.8972473747463</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1107.976466382457</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1528.02936532736</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2326.371599383719</v>
       </c>
       <c r="X5" t="n">
-        <v>1384.774472177456</v>
+        <v>2311.269540003434</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.528752517514</v>
+        <v>1902.983416303087</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576.4192408244</v>
+        <v>826.9659278567121</v>
       </c>
       <c r="C7" t="n">
-        <v>403.857529307625</v>
+        <v>654.4042163399371</v>
       </c>
       <c r="D7" t="n">
-        <v>403.857529307625</v>
+        <v>488.5262235414597</v>
       </c>
       <c r="E7" t="n">
-        <v>234.0995255583622</v>
+        <v>318.768219792197</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2329.010885218351</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2050.577884471456</v>
       </c>
       <c r="V7" t="n">
-        <v>1013.629614209975</v>
+        <v>1763.622376341887</v>
       </c>
       <c r="W7" t="n">
-        <v>1013.629614209975</v>
+        <v>1491.595971928179</v>
       </c>
       <c r="X7" t="n">
-        <v>768.2378595433871</v>
+        <v>1246.204217261591</v>
       </c>
       <c r="Y7" t="n">
-        <v>768.2378595433871</v>
+        <v>1018.784546575699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.0267416845785</v>
+        <v>2480.040423909638</v>
       </c>
       <c r="C8" t="n">
-        <v>733.9246729084059</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>702.0552921232545</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>672.3209513219538</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>244.4535217311615</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>244.4535217311615</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576093</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1618.529545798681</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="U8" t="n">
-        <v>1618.529545798681</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="V8" t="n">
-        <v>1618.529545798681</v>
+        <v>2522.462419942932</v>
       </c>
       <c r="W8" t="n">
-        <v>1617.714495250118</v>
+        <v>2521.647369394369</v>
       </c>
       <c r="X8" t="n">
-        <v>1602.612435869833</v>
+        <v>2506.545310014084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1194.326312169486</v>
+        <v>2502.299590354141</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>217.6808149456925</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>672.7335162447889</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.8504315790317</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>684.8504315790317</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>518.9724387805544</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>518.9724387805544</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2653847423106</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232027</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>377.4721657684711</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>795.6820475364322</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1250.734748835529</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835529</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.40399806131</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925642</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1592.717326504097</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1429.688261345219</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1429.688261345219</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1157.661856931511</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>912.2701022649235</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>684.8504315790317</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2336.308741984729</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1898.166269168153</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1462.256484342597</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503957</v>
+        <v>1186.925458503959</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940404</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.83610851071</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344106</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302701</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5112,25 +5112,25 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="K12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="L12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="M12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="N12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="O12" t="n">
         <v>282.3408549543107</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580465</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412714</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="D13" t="n">
-        <v>608.7923094427941</v>
+        <v>837.3544329777442</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2691.977765289287</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.098318867742</v>
+        <v>2286.856950165738</v>
       </c>
       <c r="U13" t="n">
-        <v>2167.665318120847</v>
+        <v>2008.423949418844</v>
       </c>
       <c r="V13" t="n">
-        <v>1880.709809991278</v>
+        <v>1721.468441289274</v>
       </c>
       <c r="W13" t="n">
-        <v>1608.683405577569</v>
+        <v>1449.442036875566</v>
       </c>
       <c r="X13" t="n">
-        <v>1363.291650910982</v>
+        <v>1237.335815180411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.87198022509</v>
+        <v>1009.916144494519</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.30874198473</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342598</v>
+        <v>1378.604610526434</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500893</v>
+        <v>944.8298656847294</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101009</v>
+        <v>516.9624360939372</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333648</v>
+        <v>115.564604717201</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
         <v>96.73597668111518</v>
@@ -5303,25 +5303,25 @@
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469638</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="K15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="L15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="M15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="N15" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="O15" t="n">
         <v>282.3408549543107</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>944.0533615061025</v>
+        <v>947.2320137580465</v>
       </c>
       <c r="C16" t="n">
-        <v>771.4916499893272</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D16" t="n">
-        <v>605.6136571908499</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E16" t="n">
-        <v>435.8556534415872</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F16" t="n">
-        <v>259.1485994033434</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G16" t="n">
         <v>96.73597668111518</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289287</v>
+        <v>2691.977765289286</v>
       </c>
       <c r="S16" t="n">
-        <v>2691.977765289286</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.098318867741</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U16" t="n">
-        <v>2167.665318120847</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V16" t="n">
-        <v>1880.709809991277</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W16" t="n">
-        <v>1608.683405577569</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X16" t="n">
-        <v>1363.291650910981</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.87198022509</v>
+        <v>1139.050632477034</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2522.958394689264</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.815921872688</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D17" t="n">
-        <v>1648.906137047132</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.131392205427</v>
+        <v>944.8298656847298</v>
       </c>
       <c r="F17" t="n">
-        <v>787.263962614635</v>
+        <v>516.9624360939376</v>
       </c>
       <c r="G17" t="n">
-        <v>385.8661312378989</v>
+        <v>115.5646047172014</v>
       </c>
       <c r="H17" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
       </c>
       <c r="J17" t="n">
-        <v>96.73597668111518</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="K17" t="n">
-        <v>96.73597668111518</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="L17" t="n">
-        <v>96.73597668111518</v>
+        <v>199.0316880464641</v>
       </c>
       <c r="M17" t="n">
-        <v>1186.925458503958</v>
+        <v>1356.079523257015</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5543,22 +5543,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.158956950349</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
-        <v>4181.542006884175</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W17" t="n">
-        <v>3776.686552295208</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X17" t="n">
-        <v>3357.544088874519</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.257965174173</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="18">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.8119928040993</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>612.2502812873242</v>
+        <v>774.6703022412714</v>
       </c>
       <c r="D19" t="n">
-        <v>446.3722884888469</v>
+        <v>608.7923094427941</v>
       </c>
       <c r="E19" t="n">
-        <v>276.6142847395842</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>99.90723070134041</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2691.977765289287</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U19" t="n">
-        <v>2008.423949418844</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V19" t="n">
-        <v>1721.468441289274</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1449.442036875566</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.050282208978</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>976.6306115230864</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2523.375184062124</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C20" t="n">
-        <v>2085.232711245548</v>
+        <v>2034.581622478951</v>
       </c>
       <c r="D20" t="n">
-        <v>1649.322926419992</v>
+        <v>1598.671837653396</v>
       </c>
       <c r="E20" t="n">
-        <v>1215.548181578287</v>
+        <v>1164.897092811691</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>737.0296632208988</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>335.6318318441625</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363478</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W20" t="n">
-        <v>3506.385025774511</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X20" t="n">
-        <v>3087.242562353822</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y20" t="n">
-        <v>2678.956438653474</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>96.73597668111518</v>
       </c>
       <c r="I21" t="n">
-        <v>96.73597668111518</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>96.73597668111518</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>96.73597668111518</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3408549543107</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
         <v>1102.064021433509</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>947.2320137580464</v>
+        <v>947.2320137580467</v>
       </c>
       <c r="C22" t="n">
-        <v>774.6703022412713</v>
+        <v>774.6703022412717</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>608.7923094427942</v>
       </c>
       <c r="E22" t="n">
         <v>439.0343056935313</v>
@@ -5938,19 +5938,19 @@
         <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2449.276971119685</v>
+        <v>2449.276971119686</v>
       </c>
       <c r="U22" t="n">
-        <v>2170.84397037279</v>
+        <v>2170.843970372791</v>
       </c>
       <c r="V22" t="n">
-        <v>1883.888462243221</v>
+        <v>1883.888462243222</v>
       </c>
       <c r="W22" t="n">
         <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1366.470303162925</v>
+        <v>1366.470303162926</v>
       </c>
       <c r="Y22" t="n">
         <v>1139.050632477034</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>970.9960463903952</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>798.4343348736202</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>632.5563420751429</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>462.7983383258801</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>286.0912842876363</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461862</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>875.5388337745582</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085203</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6415,19 +6415,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6537,25 +6537,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1004.611946844417</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>832.0502353276421</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6652,19 +6652,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1423.850236249296</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1196.430565563404</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>831.0115848906044</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>665.1335920921271</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>665.1335920921271</v>
       </c>
       <c r="F34" t="n">
-        <v>267.8521152449518</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6935,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903953</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736204</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>632.556342075143</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258803</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>286.0912842876365</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>120.5000093134642</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461862</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7178,46 +7178,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957672</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789921</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805148</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831958</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930082</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="41">
@@ -7415,40 +7415,40 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477109</v>
+        <v>949.5782250957673</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789922</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324585</v>
+        <v>611.1385207805149</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831958</v>
+        <v>441.3805170312521</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930083</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.801834709349</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832885</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.995166752589</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7637,7 +7637,7 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7652,43 +7652,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
         <v>2955.199618136697</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883921</v>
+        <v>811.7546776883911</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>639.192966171616</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731386</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238758</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856316</v>
       </c>
       <c r="G46" t="n">
         <v>102.2608402707796</v>
@@ -7807,13 +7807,13 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745664</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M46" t="n">
-        <v>1341.29272895548</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
         <v>1783.551532113124</v>
@@ -7837,19 +7837,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.411126173567</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759859</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.992967093271</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1003.573296407379</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>418.1767063438489</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>375.3148740236112</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877334</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8143,16 +8143,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>234.1981173878728</v>
       </c>
       <c r="O4" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8219,25 +8219,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.4729892007681</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314105</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866497</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062421</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314105</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8611,22 +8611,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>256.687419338655</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10185,13 +10185,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10364,13 +10364,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10598,13 +10598,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>184.7831561774892</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.146865729424462</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>32.95267764171805</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>184.7831561774888</v>
+        <v>268.0111327346223</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>49.73195639979949</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>268.0111327346222</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>49.731956399799</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627259</v>
+        <v>139.5921776627268</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>69.71657238081399</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>63.1463145253046</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>160.7958207444071</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>212.1323395461468</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>7.907823718758641</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>120.4463752142715</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.146865729424292</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627254</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627271</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631904.8724645954</v>
+        <v>631904.8724645955</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>631904.8724645955</v>
+        <v>631904.8724645954</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>631904.8724645954</v>
+        <v>631904.8724645955</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716905</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716905</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658571.9801716903</v>
+        <v>658571.9801716905</v>
       </c>
     </row>
     <row r="13">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>268073.6599452042</v>
+        <v>268073.6599452041</v>
       </c>
       <c r="C2" t="n">
         <v>268073.6599452042</v>
       </c>
       <c r="D2" t="n">
-        <v>268073.6599452043</v>
+        <v>268073.6599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="F2" t="n">
         <v>252761.9489858382</v>
@@ -26329,7 +26329,7 @@
         <v>252761.9489858382</v>
       </c>
       <c r="H2" t="n">
-        <v>252761.9489858381</v>
+        <v>252761.9489858382</v>
       </c>
       <c r="I2" t="n">
         <v>263428.7920686761</v>
@@ -26347,7 +26347,7 @@
         <v>263428.7920686761</v>
       </c>
       <c r="N2" t="n">
-        <v>263428.7920686761</v>
+        <v>263428.792068676</v>
       </c>
       <c r="O2" t="n">
         <v>263428.7920686761</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390675</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784522</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>125788.3839715079</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>161077.0551897628</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="F4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687733</v>
       </c>
       <c r="G4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687734</v>
       </c>
       <c r="H4" t="n">
-        <v>773.6821211687732</v>
+        <v>773.6821211687638</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26445,16 +26445,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825614</v>
       </c>
       <c r="O4" t="n">
-        <v>806.3323907826241</v>
+        <v>806.3323907825204</v>
       </c>
       <c r="P4" t="n">
         <v>806.3323907826023</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814191</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.2386057925</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.2386057925</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-102710.5221214878</v>
+        <v>-134376.1167883485</v>
       </c>
       <c r="C6" t="n">
-        <v>39480.77853822202</v>
+        <v>63016.18479128908</v>
       </c>
       <c r="D6" t="n">
-        <v>34440.52713496872</v>
+        <v>80356.72916519588</v>
       </c>
       <c r="E6" t="n">
-        <v>-45330.36916500508</v>
+        <v>16657.2908221106</v>
       </c>
       <c r="F6" t="n">
-        <v>178468.9245870219</v>
+        <v>178392.3660322251</v>
       </c>
       <c r="G6" t="n">
-        <v>178468.9245870219</v>
+        <v>178392.3660322251</v>
       </c>
       <c r="H6" t="n">
-        <v>178468.9245870218</v>
+        <v>178392.3660322251</v>
       </c>
       <c r="I6" t="n">
-        <v>166539.5054392615</v>
+        <v>166516.2810998788</v>
       </c>
       <c r="J6" t="n">
-        <v>73889.75572711084</v>
+        <v>24273.16724710521</v>
       </c>
       <c r="K6" t="n">
-        <v>184904.221072101</v>
+        <v>171066.9881648731</v>
       </c>
       <c r="L6" t="n">
-        <v>175956.6099835908</v>
+        <v>184880.9967327184</v>
       </c>
       <c r="M6" t="n">
-        <v>-1886.765538366366</v>
+        <v>49891.05211971487</v>
       </c>
       <c r="N6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
       <c r="O6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327185</v>
       </c>
       <c r="P6" t="n">
-        <v>184904.221072101</v>
+        <v>184880.9967327183</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
         <v>1209.19970851394</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052291</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052291</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052291</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.465190568306582</v>
-      </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>396.4200666321095</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>247.1316420618856</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>125.6574435700642</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,10 +27591,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.7899861621364</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>307.084159299328</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>324.3396253613195</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>140.7210473351056</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>84.63380825304819</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>80.63408260129373</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>71.7441324320807</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27919,7 +27919,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>33.2365282877804</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>114.2498962321365</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.220530961226252e-12</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>418.1767063438489</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.841056877334</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.841056877334</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,7 +34772,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>375.3148740236112</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.841056877334</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,16 +34863,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>234.1981173878728</v>
       </c>
       <c r="O4" t="n">
-        <v>298.4303698644312</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34939,25 +34939,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>223.4729892007681</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>459.6491932314105</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866497</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>182.7362419062421</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>459.6491932314105</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>256.687419338655</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314105</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1101.201496790749</v>
+        <v>1101.201496790752</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697549</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>161.152732437109</v>
       </c>
       <c r="P15" t="n">
         <v>828.0031984638366</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>103.3290013791403</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1101.201496790751</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,10 +36923,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37008,7 +37008,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37084,13 +37084,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821539</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37318,13 +37318,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37783,7 +37783,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908071</v>
+        <v>87.45422743908064</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
